--- a/20 開発資料/05.改修管理/改修管理_交通宿泊取込(NZMi0014).xlsx
+++ b/20 開発資料/05.改修管理/改修管理_交通宿泊取込(NZMi0014).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -188,6 +188,19 @@
   </si>
   <si>
     <t>交通宿泊取込(NZMi0023)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通宿泊手配テーブルにトップツアー請求番号を追加されているので変更取込時にトップツアー請求番号を引き継ぐ</t>
+  </si>
+  <si>
+    <t>トップツアー精算番号</t>
+    <rPh sb="6" eb="8">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バンゴウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -481,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -497,9 +510,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,11 +549,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -539,47 +588,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -889,7 +911,7 @@
       <pane xSplit="53" ySplit="6" topLeftCell="BB7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="BB1" sqref="BB1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AG14" sqref="AG14"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="11.25"/>
@@ -899,246 +921,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="7" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7" t="s">
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7" t="s">
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7" t="s">
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
     </row>
     <row r="2" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="18">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="10">
         <v>41611</v>
       </c>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="7" t="s">
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
     </row>
     <row r="3" spans="1:59" ht="11.25" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
     </row>
     <row r="4" spans="1:59">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
     </row>
     <row r="5" spans="1:59">
       <c r="A5" s="2"/>
@@ -1162,71 +1184,71 @@
       <c r="BG5" s="2"/>
     </row>
     <row r="6" spans="1:59" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32" t="s">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32" t="s">
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="33" t="s">
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="33"/>
-      <c r="AZ6" s="33"/>
-      <c r="BA6" s="34"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="26"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
@@ -1238,290 +1260,294 @@
       <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="28"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="20"/>
+      <c r="AP7" s="20"/>
+      <c r="AQ7" s="20"/>
+      <c r="AR7" s="20"/>
+      <c r="AS7" s="20"/>
+      <c r="AT7" s="20"/>
+      <c r="AU7" s="20"/>
+      <c r="AV7" s="20"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="23"/>
     </row>
-    <row r="8" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" spans="1:59" s="3" customFormat="1" ht="45.75" customHeight="1">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="29"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="29"/>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="30"/>
+      <c r="B8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="36"/>
+      <c r="AF8" s="36"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="29"/>
     </row>
     <row r="9" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="29"/>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="29"/>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="28"/>
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="28"/>
+      <c r="AZ9" s="28"/>
+      <c r="BA9" s="29"/>
     </row>
     <row r="10" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="22"/>
-      <c r="AY10" s="22"/>
-      <c r="AZ10" s="22"/>
-      <c r="BA10" s="23"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="27"/>
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="33"/>
+      <c r="AY10" s="33"/>
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="34"/>
     </row>
     <row r="11" spans="1:59" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="21"/>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="20"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="31"/>
+      <c r="AZ11" s="31"/>
+      <c r="BA11" s="32"/>
     </row>
     <row r="12" spans="1:59" s="3" customFormat="1"/>
     <row r="13" spans="1:59" s="3" customFormat="1"/>
@@ -1532,6 +1558,36 @@
     <row r="18" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AJ10"/>
+    <mergeCell ref="AK10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AJ11"/>
+    <mergeCell ref="AK11:AV11"/>
+    <mergeCell ref="AW11:BA11"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AJ8"/>
+    <mergeCell ref="AK8:AV8"/>
+    <mergeCell ref="AW8:BA8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AJ9"/>
+    <mergeCell ref="AK9:AV9"/>
+    <mergeCell ref="AW9:BA9"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:W6"/>
+    <mergeCell ref="X6:AJ6"/>
+    <mergeCell ref="AK6:AV6"/>
+    <mergeCell ref="AW6:BA6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="K7:W7"/>
+    <mergeCell ref="X7:AJ7"/>
+    <mergeCell ref="AK7:AV7"/>
+    <mergeCell ref="AW7:BA7"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="A2:I4"/>
     <mergeCell ref="J2:O4"/>
@@ -1545,36 +1601,6 @@
     <mergeCell ref="AH1:AL1"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="K7:W7"/>
-    <mergeCell ref="X7:AJ7"/>
-    <mergeCell ref="AK7:AV7"/>
-    <mergeCell ref="AW7:BA7"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:W6"/>
-    <mergeCell ref="X6:AJ6"/>
-    <mergeCell ref="AK6:AV6"/>
-    <mergeCell ref="AW6:BA6"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AJ9"/>
-    <mergeCell ref="AK9:AV9"/>
-    <mergeCell ref="AW9:BA9"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AJ8"/>
-    <mergeCell ref="AK8:AV8"/>
-    <mergeCell ref="AW8:BA8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AJ11"/>
-    <mergeCell ref="AK11:AV11"/>
-    <mergeCell ref="AW11:BA11"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AJ10"/>
-    <mergeCell ref="AK10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.62992125984251968" footer="0.39370078740157483"/>
